--- a/q ckecker.xlsx
+++ b/q ckecker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\gre_resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0AB73E-6299-41BE-8F6E-A66E27623BF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83ACD6E8-A2DD-4D07-B976-FBA46E0DBBE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="21864" windowHeight="13152" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24902,8 +24902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B124C1F-BD2E-47DA-B109-4CD9D581A4E3}">
   <dimension ref="A4:B300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -25517,9 +25517,6 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A83">
-        <v>83</v>
-      </c>
       <c r="B83">
         <v>83</v>
       </c>
@@ -25637,9 +25634,6 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A98">
-        <v>98</v>
-      </c>
       <c r="B98">
         <v>98</v>
       </c>
@@ -25741,17 +25735,11 @@
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111">
-        <v>111</v>
-      </c>
       <c r="B111">
         <v>111</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A112">
-        <v>112</v>
-      </c>
       <c r="B112">
         <v>112</v>
       </c>

--- a/q ckecker.xlsx
+++ b/q ckecker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yxk\Documents\github\gre_resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EE37380-CBB3-4BE6-9456-074630321856}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B71524-4ADF-49DA-A4A3-7F5153A10D37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21850" windowHeight="15260" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24902,8 +24902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B124C1F-BD2E-47DA-B109-4CD9D581A4E3}">
   <dimension ref="A4:B300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A124" sqref="A124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -25417,14 +25417,6 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71">
-        <v>71</v>
-      </c>
-      <c r="B71">
-        <v>71</v>
-      </c>
-    </row>
     <row r="72" spans="1:2">
       <c r="A72">
         <v>72</v>
@@ -25636,9 +25628,6 @@
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99">
-        <v>99</v>
-      </c>
       <c r="B99">
         <v>99</v>
       </c>
@@ -25814,17 +25803,11 @@
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122">
-        <v>122</v>
-      </c>
       <c r="B122">
         <v>122</v>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123">
-        <v>123</v>
-      </c>
       <c r="B123">
         <v>123</v>
       </c>
@@ -25840,111 +25823,96 @@
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126">
-        <v>126</v>
-      </c>
       <c r="B126">
         <v>126</v>
       </c>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127">
-        <v>127</v>
-      </c>
       <c r="B127">
         <v>127</v>
       </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128">
-        <v>128</v>
-      </c>
       <c r="B128">
         <v>128</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
-      <c r="A129">
-        <v>129</v>
-      </c>
+    <row r="129" spans="2:2">
       <c r="B129">
         <v>129</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
-      <c r="A130">
-        <v>130</v>
-      </c>
+    <row r="130" spans="2:2">
       <c r="B130">
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="2:2">
       <c r="B131">
         <v>131</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="2:2">
       <c r="B132">
         <v>132</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="2:2">
       <c r="B133">
         <v>133</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="2:2">
       <c r="B134">
         <v>134</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="2:2">
       <c r="B135">
         <v>135</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="2:2">
       <c r="B136">
         <v>136</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="2:2">
       <c r="B137">
         <v>137</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="2:2">
       <c r="B138">
         <v>138</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="2:2">
       <c r="B139">
         <v>139</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="2:2">
       <c r="B140">
         <v>140</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="2:2">
       <c r="B141">
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="2:2">
       <c r="B142">
         <v>142</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="2:2">
       <c r="B143">
         <v>143</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="2:2">
       <c r="B144">
         <v>144</v>
       </c>
